--- a/Package/WATK Assets.xlsx
+++ b/Package/WATK Assets.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sw\dpeted\WindowsAzureTrainingKit\Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="335">
   <si>
     <t>Asset</t>
   </si>
@@ -789,6 +789,255 @@
   </si>
   <si>
     <t>Demo-BuildingRealWorldCloudApps</t>
+  </si>
+  <si>
+    <t>PRESENTATION-BuildingAndroidAppsWithWindowsAzureMobileServices</t>
+  </si>
+  <si>
+    <t>PRESENTATION-BuildingAppsWithIaaSAndPaaS</t>
+  </si>
+  <si>
+    <t>PRESENTATION-BuildingDeviceCloudApps</t>
+  </si>
+  <si>
+    <t>PRESENTATION-BuildingiOSAppsWithWindowsAzureMobileServices</t>
+  </si>
+  <si>
+    <t>PRESENTATION-CloudServiceLifecycle</t>
+  </si>
+  <si>
+    <t>PRESENTATION-DeliveringWindows8PushNotifications</t>
+  </si>
+  <si>
+    <t>PRESENTATION-DeployingActiveDirectory</t>
+  </si>
+  <si>
+    <t>PRESENTATION-DeployingSharePointOnVMs</t>
+  </si>
+  <si>
+    <t>PRESENTATION-DeployingSQLServerOnVMs</t>
+  </si>
+  <si>
+    <t>PRESENTATION-DevCamps-CloudServices</t>
+  </si>
+  <si>
+    <t>PRESENTATION-DevCamps-Data</t>
+  </si>
+  <si>
+    <t>PRESENTATION-DevCamps-Keynote</t>
+  </si>
+  <si>
+    <t>PRESENTATION-DevCamps-VirtualMachines</t>
+  </si>
+  <si>
+    <t>PRESENTATION-DevCamps-WebSites</t>
+  </si>
+  <si>
+    <t>PRESENTATION-DevCamps-Windows8AndWindowsAzureWebSites</t>
+  </si>
+  <si>
+    <t>PRESENTATION-DevCamps-WindowsPhoneAndWindowsAzure</t>
+  </si>
+  <si>
+    <t>PRESENTATION-HadoopOnWindowsAzure</t>
+  </si>
+  <si>
+    <t>PRESENTATION-IdentityAndAccessControl</t>
+  </si>
+  <si>
+    <t>PRESENTATION-LinuxVirtualMachines</t>
+  </si>
+  <si>
+    <t>PRESENTATION-ManagingVMsPowerShell</t>
+  </si>
+  <si>
+    <t>PRESENTATION-MigratingAppsAndWorkloads</t>
+  </si>
+  <si>
+    <t>PRESENTATION-ScalableGlobalAndHighlyAvailableApps</t>
+  </si>
+  <si>
+    <t>PRESENTATION-SecurityandIdentity</t>
+  </si>
+  <si>
+    <t>PRESENTATION-SQLDatabase</t>
+  </si>
+  <si>
+    <t>PRESENTATION-SQLDatabaseMigration</t>
+  </si>
+  <si>
+    <t>PRESENTATION-SQLDataSync</t>
+  </si>
+  <si>
+    <t>PRESENTATION-SQLFederation</t>
+  </si>
+  <si>
+    <t>PRESENTATION-SQLReporting</t>
+  </si>
+  <si>
+    <t>PRESENTATION-VirtualMachinesOverview</t>
+  </si>
+  <si>
+    <t>PRESENTATION-VirtualNetworks</t>
+  </si>
+  <si>
+    <t>PRESENTATION-Windows8AndWindowsAzureMobileServices</t>
+  </si>
+  <si>
+    <t>PRESENTATION-Windows8AndWindowsAzureWebSites</t>
+  </si>
+  <si>
+    <t>PRESENTATION-WindowsAzureCloudServices</t>
+  </si>
+  <si>
+    <t>PRESENTATION-WindowsAzureHDInsight</t>
+  </si>
+  <si>
+    <t>PRESENTATION-WindowsAzureITProOverview</t>
+  </si>
+  <si>
+    <t>PRESENTATION-WindowsAzureOverview</t>
+  </si>
+  <si>
+    <t>PRESENTATION-WindowsAzureServiceBus</t>
+  </si>
+  <si>
+    <t>PRESENTATION-WindowsAzureStorage</t>
+  </si>
+  <si>
+    <t>PRESENTATION-WindowsAzureVirtualMachines</t>
+  </si>
+  <si>
+    <t>PRESENTATION-WindowsAzureWebSites</t>
+  </si>
+  <si>
+    <t>PRESENTATION-WindowsPhoneAndWindowsAzureMobileServices</t>
+  </si>
+  <si>
+    <t>BuildingAndroidAppsWithWindowsAzureMobileServices</t>
+  </si>
+  <si>
+    <t>BuildingAppsWithIaaSAndPaaS</t>
+  </si>
+  <si>
+    <t>BuildingDeviceCloudApps</t>
+  </si>
+  <si>
+    <t>BuildingiOSAppsWithWindowsAzureMobileServices</t>
+  </si>
+  <si>
+    <t>CloudServiceLifecycle</t>
+  </si>
+  <si>
+    <t>DeliveringWindows8PushNotifications</t>
+  </si>
+  <si>
+    <t>DeployingActiveDirectory</t>
+  </si>
+  <si>
+    <t>DeployingSharePointOnVMs</t>
+  </si>
+  <si>
+    <t>DeployingSQLServerOnVMs</t>
+  </si>
+  <si>
+    <t>DevCamps-CloudServices</t>
+  </si>
+  <si>
+    <t>DevCamps-Data</t>
+  </si>
+  <si>
+    <t>DevCamps-Keynote</t>
+  </si>
+  <si>
+    <t>DevCamps-VirtualMachines</t>
+  </si>
+  <si>
+    <t>DevCamps-WebSites</t>
+  </si>
+  <si>
+    <t>DevCamps-Windows8AndWindowsAzureWebSites</t>
+  </si>
+  <si>
+    <t>DevCamps-WindowsPhoneAndWindowsAzure</t>
+  </si>
+  <si>
+    <t>HadoopOnWindowsAzure</t>
+  </si>
+  <si>
+    <t>IdentityAndAccessControl</t>
+  </si>
+  <si>
+    <t>LinuxVirtualMachines</t>
+  </si>
+  <si>
+    <t>ManagingVMsPowerShell</t>
+  </si>
+  <si>
+    <t>MigratingAppsAndWorkloads</t>
+  </si>
+  <si>
+    <t>ScalableGlobalAndHighlyAvailableApps</t>
+  </si>
+  <si>
+    <t>SecurityandIdentity</t>
+  </si>
+  <si>
+    <t>SQLDatabase</t>
+  </si>
+  <si>
+    <t>SQLDatabaseMigration</t>
+  </si>
+  <si>
+    <t>SQLDataSync</t>
+  </si>
+  <si>
+    <t>SQLFederation</t>
+  </si>
+  <si>
+    <t>SQLReporting</t>
+  </si>
+  <si>
+    <t>VirtualMachinesOverview</t>
+  </si>
+  <si>
+    <t>VirtualNetworks</t>
+  </si>
+  <si>
+    <t>Windows8AndWindowsAzureMobileServices</t>
+  </si>
+  <si>
+    <t>Windows8AndWindowsAzureWebSites</t>
+  </si>
+  <si>
+    <t>WindowsAzureCloudServices</t>
+  </si>
+  <si>
+    <t>WindowsAzureHDInsight</t>
+  </si>
+  <si>
+    <t>WindowsAzureITProOverview</t>
+  </si>
+  <si>
+    <t>WindowsAzureOverview</t>
+  </si>
+  <si>
+    <t>WindowsAzureServiceBus</t>
+  </si>
+  <si>
+    <t>WindowsAzureStorage</t>
+  </si>
+  <si>
+    <t>WindowsAzureVirtualMachines</t>
+  </si>
+  <si>
+    <t>WindowsAzureWebSites</t>
+  </si>
+  <si>
+    <t>WindowsPhoneAndWindowsAzureMobileServices</t>
+  </si>
+  <si>
+    <t>DevCamps-Windows8AndWindowsAzureMobileServices</t>
   </si>
 </sst>
 </file>
@@ -942,7 +1191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1035,35 +1284,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="36">
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
+        <u/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color auto="1"/>
+        <color theme="10"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1074,14 +1335,6 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1103,14 +1356,48 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
         <color auto="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1160,6 +1447,36 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1168,10 +1485,10 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="10"/>
+        <sz val="11"/>
+        <color theme="0"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1181,17 +1498,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1224,6 +1531,56 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1493,6 +1850,108 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -1568,7 +2027,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I76" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I76" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <autoFilter ref="A1:I76">
     <filterColumn colId="2">
       <customFilters>
@@ -1580,36 +2039,52 @@
     <sortCondition ref="A1:A76"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="P" dataDxfId="21"/>
-    <tableColumn id="2" name="Asset" dataDxfId="5" dataCellStyle="Hyperlink"/>
-    <tableColumn id="9" name="VSO" dataDxfId="3" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" name="SDK" dataDxfId="4"/>
-    <tableColumn id="4" name="In WATK" dataDxfId="20"/>
-    <tableColumn id="5" name="VS" dataDxfId="19"/>
-    <tableColumn id="6" name="OS" dataDxfId="18"/>
-    <tableColumn id="7" name="Last Update" dataDxfId="17"/>
-    <tableColumn id="8" name="Notes" dataDxfId="16"/>
+    <tableColumn id="1" name="P" dataDxfId="30"/>
+    <tableColumn id="2" name="Asset" dataDxfId="29" dataCellStyle="Hyperlink"/>
+    <tableColumn id="9" name="VSO" dataDxfId="28" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="SDK" dataDxfId="27"/>
+    <tableColumn id="4" name="In WATK" dataDxfId="26"/>
+    <tableColumn id="5" name="VS" dataDxfId="25"/>
+    <tableColumn id="6" name="OS" dataDxfId="24"/>
+    <tableColumn id="7" name="Last Update" dataDxfId="23"/>
+    <tableColumn id="8" name="Notes" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I34" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I34" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
   <autoFilter ref="A1:I34"/>
   <sortState ref="A2:I34">
     <sortCondition ref="A1:A34"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="P" dataDxfId="11"/>
-    <tableColumn id="2" name="Asset" dataDxfId="2"/>
-    <tableColumn id="9" name="VSO" dataDxfId="0" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" name="SDK" dataDxfId="1"/>
-    <tableColumn id="4" name="In WATK" dataDxfId="10"/>
-    <tableColumn id="5" name="VS" dataDxfId="9"/>
-    <tableColumn id="6" name="OS" dataDxfId="8"/>
-    <tableColumn id="7" name="Last Update" dataDxfId="7"/>
-    <tableColumn id="8" name="Notes" dataDxfId="6"/>
+    <tableColumn id="1" name="P" dataDxfId="17"/>
+    <tableColumn id="2" name="Asset" dataDxfId="16"/>
+    <tableColumn id="9" name="VSO" dataDxfId="15" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="SDK" dataDxfId="14"/>
+    <tableColumn id="4" name="In WATK" dataDxfId="13"/>
+    <tableColumn id="5" name="VS" dataDxfId="12"/>
+    <tableColumn id="6" name="OS" dataDxfId="11"/>
+    <tableColumn id="7" name="Last Update" dataDxfId="10"/>
+    <tableColumn id="8" name="Notes" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:D46" totalsRowShown="0" headerRowDxfId="8" dataDxfId="1" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:D46"/>
+  <sortState ref="A2:D46">
+    <sortCondition ref="B1:B46"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" name="P" dataDxfId="4"/>
+    <tableColumn id="2" name="Asset" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="9" name="VSO" dataDxfId="3" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" name="In WATK" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1882,7 +2357,7 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4038,7 +4513,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5019,12 +5494,571 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" t="s">
+        <v>264</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" t="s">
+        <v>266</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" t="s">
+        <v>310</v>
+      </c>
+      <c r="C22" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" t="s">
+        <v>311</v>
+      </c>
+      <c r="C23" t="s">
+        <v>270</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" t="s">
+        <v>312</v>
+      </c>
+      <c r="C24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" t="s">
+        <v>313</v>
+      </c>
+      <c r="C25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" t="s">
+        <v>314</v>
+      </c>
+      <c r="C26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" t="s">
+        <v>315</v>
+      </c>
+      <c r="C27" t="s">
+        <v>274</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" t="s">
+        <v>316</v>
+      </c>
+      <c r="C28" t="s">
+        <v>275</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" t="s">
+        <v>317</v>
+      </c>
+      <c r="C29" t="s">
+        <v>276</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" t="s">
+        <v>318</v>
+      </c>
+      <c r="C30" t="s">
+        <v>277</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" t="s">
+        <v>319</v>
+      </c>
+      <c r="C31" t="s">
+        <v>278</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" t="s">
+        <v>320</v>
+      </c>
+      <c r="C32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C33" t="s">
+        <v>280</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" t="s">
+        <v>322</v>
+      </c>
+      <c r="C34" t="s">
+        <v>281</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" t="s">
+        <v>323</v>
+      </c>
+      <c r="C35" t="s">
+        <v>282</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="C36" s="35"/>
+      <c r="D36" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" t="s">
+        <v>324</v>
+      </c>
+      <c r="C37" t="s">
+        <v>283</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="26"/>
+      <c r="B46" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Package/WATK Assets.xlsx
+++ b/Package/WATK Assets.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7305" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Labs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="335">
   <si>
     <t>Asset</t>
   </si>
@@ -1304,48 +1304,6 @@
   <dxfs count="36">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1414,6 +1372,40 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1455,13 +1447,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1471,6 +1456,21 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -2075,16 +2075,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:D46" totalsRowShown="0" headerRowDxfId="8" dataDxfId="1" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:D46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:D43" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:D43"/>
   <sortState ref="A2:D46">
     <sortCondition ref="B1:B46"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="P" dataDxfId="4"/>
-    <tableColumn id="2" name="Asset" dataDxfId="0" dataCellStyle="Hyperlink"/>
-    <tableColumn id="9" name="VSO" dataDxfId="3" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" name="In WATK" dataDxfId="2"/>
+    <tableColumn id="1" name="P" dataDxfId="3"/>
+    <tableColumn id="2" name="Asset" dataDxfId="2" dataCellStyle="Hyperlink"/>
+    <tableColumn id="9" name="VSO" dataDxfId="1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" name="In WATK" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2356,7 +2356,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -5494,10 +5494,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5537,10 +5537,12 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="C3" s="35"/>
+      <c r="B3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" t="s">
+        <v>253</v>
+      </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
@@ -5548,10 +5550,10 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>9</v>
@@ -5560,10 +5562,10 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>9</v>
@@ -5572,21 +5574,23 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="C7" s="35"/>
+      <c r="B7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" t="s">
+        <v>257</v>
+      </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
@@ -5594,22 +5598,22 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>9</v>
@@ -5618,10 +5622,10 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>9</v>
@@ -5630,10 +5634,10 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>9</v>
@@ -5642,10 +5646,10 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C12" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>9</v>
@@ -5654,10 +5658,10 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C13" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>9</v>
@@ -5666,10 +5670,10 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C14" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>9</v>
@@ -5678,10 +5682,10 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C15" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>9</v>
@@ -5689,12 +5693,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" t="s">
-        <v>305</v>
-      </c>
-      <c r="C16" t="s">
-        <v>264</v>
-      </c>
+      <c r="B16" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="C16" s="35"/>
       <c r="D16" s="5" t="s">
         <v>9</v>
       </c>
@@ -5702,10 +5704,10 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>9</v>
@@ -5713,10 +5715,12 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="C18" s="35"/>
+      <c r="B18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" t="s">
+        <v>267</v>
+      </c>
       <c r="D18" s="5" t="s">
         <v>9</v>
       </c>
@@ -5724,10 +5728,10 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C19" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>9</v>
@@ -5736,10 +5740,10 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C20" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>9</v>
@@ -5748,10 +5752,10 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C21" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>9</v>
@@ -5760,10 +5764,10 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C22" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>9</v>
@@ -5772,10 +5776,10 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C23" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>9</v>
@@ -5784,10 +5788,10 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C24" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>9</v>
@@ -5796,22 +5800,22 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C26" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>9</v>
@@ -5820,22 +5824,22 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C27" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C28" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>9</v>
@@ -5844,10 +5848,10 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C29" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>9</v>
@@ -5856,10 +5860,10 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C30" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>9</v>
@@ -5868,22 +5872,22 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C31" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C32" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>9</v>
@@ -5892,22 +5896,22 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C33" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C34" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>9</v>
@@ -5915,11 +5919,11 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" t="s">
-        <v>323</v>
-      </c>
-      <c r="C35" t="s">
-        <v>282</v>
+      <c r="B35" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>284</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>9</v>
@@ -5928,20 +5932,22 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="C36" s="35"/>
+        <v>326</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>285</v>
+      </c>
       <c r="D36" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" t="s">
-        <v>324</v>
-      </c>
-      <c r="C37" t="s">
-        <v>283</v>
+      <c r="B37" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>286</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>9</v>
@@ -5950,10 +5956,10 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="34" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>9</v>
@@ -5962,10 +5968,10 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="34" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>9</v>
@@ -5974,10 +5980,10 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>286</v>
+        <v>330</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>289</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>9</v>
@@ -5986,10 +5992,10 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>287</v>
+        <v>331</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>290</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>9</v>
@@ -5998,60 +6004,24 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="34" t="s">
-        <v>329</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>288</v>
+        <v>332</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>291</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>289</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>290</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>291</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C43" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D43" s="26" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Package/WATK Assets.xlsx
+++ b/Package/WATK Assets.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sw\dpeted\WindowsAzureTrainingKit\Package\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Spikes\WindowsAzureTrainingKit\Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7305" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Labs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="336">
   <si>
     <t>Asset</t>
   </si>
@@ -1038,13 +1038,16 @@
   </si>
   <si>
     <t>DevCamps-Windows8AndWindowsAzureMobileServices</t>
+  </si>
+  <si>
+    <t>Deprecated Feb 2014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1097,6 +1100,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1191,12 +1201,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1232,12 +1239,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1253,9 +1254,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1296,12 +1294,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="43">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1501,6 +1510,26 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1643,6 +1672,26 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2013,6 +2062,26 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2027,7 +2096,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I76" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I76" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <autoFilter ref="A1:I76">
     <filterColumn colId="2">
       <customFilters>
@@ -2039,52 +2108,53 @@
     <sortCondition ref="A1:A76"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="P" dataDxfId="30"/>
-    <tableColumn id="2" name="Asset" dataDxfId="29" dataCellStyle="Hyperlink"/>
-    <tableColumn id="9" name="VSO" dataDxfId="28" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" name="SDK" dataDxfId="27"/>
-    <tableColumn id="4" name="In WATK" dataDxfId="26"/>
-    <tableColumn id="5" name="VS" dataDxfId="25"/>
-    <tableColumn id="6" name="OS" dataDxfId="24"/>
-    <tableColumn id="7" name="Last Update" dataDxfId="23"/>
-    <tableColumn id="8" name="Notes" dataDxfId="22"/>
+    <tableColumn id="1" name="P" dataDxfId="35"/>
+    <tableColumn id="2" name="Asset" dataDxfId="34" dataCellStyle="Hyperlink"/>
+    <tableColumn id="9" name="VSO" dataDxfId="33" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="SDK" dataDxfId="32"/>
+    <tableColumn id="4" name="In WATK" dataDxfId="31"/>
+    <tableColumn id="5" name="VS" dataDxfId="30"/>
+    <tableColumn id="6" name="OS" dataDxfId="29"/>
+    <tableColumn id="7" name="Last Update" dataDxfId="28"/>
+    <tableColumn id="8" name="Notes" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I34" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I34" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
   <autoFilter ref="A1:I34"/>
   <sortState ref="A2:I34">
     <sortCondition ref="A1:A34"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="P" dataDxfId="17"/>
-    <tableColumn id="2" name="Asset" dataDxfId="16"/>
-    <tableColumn id="9" name="VSO" dataDxfId="15" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" name="SDK" dataDxfId="14"/>
-    <tableColumn id="4" name="In WATK" dataDxfId="13"/>
-    <tableColumn id="5" name="VS" dataDxfId="12"/>
-    <tableColumn id="6" name="OS" dataDxfId="11"/>
-    <tableColumn id="7" name="Last Update" dataDxfId="10"/>
-    <tableColumn id="8" name="Notes" dataDxfId="9"/>
+    <tableColumn id="1" name="P" dataDxfId="20"/>
+    <tableColumn id="2" name="Asset" dataDxfId="19"/>
+    <tableColumn id="9" name="VSO" dataDxfId="18" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="SDK" dataDxfId="17"/>
+    <tableColumn id="4" name="In WATK" dataDxfId="16"/>
+    <tableColumn id="5" name="VS" dataDxfId="15"/>
+    <tableColumn id="6" name="OS" dataDxfId="14"/>
+    <tableColumn id="7" name="Last Update" dataDxfId="13"/>
+    <tableColumn id="8" name="Notes" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:D43" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:D43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:E43" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E43"/>
   <sortState ref="A2:D46">
     <sortCondition ref="B1:B46"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" name="P" dataDxfId="3"/>
-    <tableColumn id="2" name="Asset" dataDxfId="2" dataCellStyle="Hyperlink"/>
-    <tableColumn id="9" name="VSO" dataDxfId="1" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" name="In WATK" dataDxfId="0"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="P" dataDxfId="4"/>
+    <tableColumn id="2" name="Asset" dataDxfId="3" dataCellStyle="Hyperlink"/>
+    <tableColumn id="9" name="VSO" dataDxfId="2" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" name="In WATK" dataDxfId="1"/>
+    <tableColumn id="3" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2356,8 +2426,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2375,435 +2445,435 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4">
         <v>8.1</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>41653</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4">
         <v>8.1</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>41653</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4">
         <v>2013</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>8.1</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>41653</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4">
         <v>8.1</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>41653</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>2013</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>8.1</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>41653</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2013</v>
+      </c>
+      <c r="G7" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>41653</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2013</v>
+      </c>
+      <c r="G8" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>41653</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2013</v>
+      </c>
+      <c r="G9" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>41653</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2013</v>
+      </c>
+      <c r="G10" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>41653</v>
+      </c>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2013</v>
+      </c>
+      <c r="G11" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>41653</v>
+      </c>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2013</v>
+      </c>
+      <c r="G12" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>41653</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2013</v>
+      </c>
+      <c r="G13" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>41653</v>
+      </c>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2013</v>
+      </c>
+      <c r="G14" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="H14" s="6">
+        <v>41653</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C15" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
         <v>2012</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13" t="s">
+      <c r="G15" s="1"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="5">
-        <v>2013</v>
-      </c>
-      <c r="G8" s="5">
-        <v>8.1</v>
-      </c>
-      <c r="H8" s="7">
-        <v>41653</v>
-      </c>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>4</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2013</v>
-      </c>
-      <c r="G9" s="5">
-        <v>8.1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>41653</v>
-      </c>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>5</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5">
-        <v>2013</v>
-      </c>
-      <c r="G10" s="5">
-        <v>8.1</v>
-      </c>
-      <c r="H10" s="7">
-        <v>41653</v>
-      </c>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B16" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C16" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
         <v>2012</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13" t="s">
+      <c r="G16" s="1"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>6</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="5">
-        <v>2013</v>
-      </c>
-      <c r="G12" s="5">
-        <v>8.1</v>
-      </c>
-      <c r="H12" s="7">
-        <v>41653</v>
-      </c>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>7</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="5">
-        <v>2013</v>
-      </c>
-      <c r="G13" s="5">
-        <v>8.1</v>
-      </c>
-      <c r="H13" s="7">
-        <v>41653</v>
-      </c>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>8</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="5">
-        <v>2013</v>
-      </c>
-      <c r="G14" s="5">
-        <v>8.1</v>
-      </c>
-      <c r="H14" s="7">
-        <v>41653</v>
-      </c>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>9</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="5">
-        <v>2013</v>
-      </c>
-      <c r="G15" s="5">
-        <v>8.1</v>
-      </c>
-      <c r="H15" s="7">
-        <v>41653</v>
-      </c>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>10</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="5">
-        <v>2013</v>
-      </c>
-      <c r="G16" s="5">
-        <v>8.1</v>
-      </c>
-      <c r="H16" s="7">
-        <v>41653</v>
-      </c>
-      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="19" t="s">
         <v>161</v>
       </c>
       <c r="D17" s="1"/>
@@ -2812,1008 +2882,1042 @@
         <v>2012</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="13" t="s">
+      <c r="H17" s="11"/>
+      <c r="I17" s="12" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="5">
-        <v>8</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="A18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="11">
+        <v>41365</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1">
+        <v>8</v>
+      </c>
+      <c r="H19" s="11">
+        <v>41395</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G20" s="1">
+        <v>7</v>
+      </c>
+      <c r="H20" s="11">
+        <v>41061</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G21" s="1">
+        <v>7</v>
+      </c>
+      <c r="H21" s="11">
+        <v>41061</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7</v>
+      </c>
+      <c r="H22" s="11">
+        <v>41183</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G23" s="1">
+        <v>7</v>
+      </c>
+      <c r="H23" s="11">
+        <v>41183</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="1">
+        <v>7</v>
+      </c>
+      <c r="H24" s="11">
+        <v>41153</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G25" s="1">
+        <v>7</v>
+      </c>
+      <c r="H25" s="11">
+        <v>41061</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G26" s="1">
+        <v>8</v>
+      </c>
+      <c r="H26" s="11">
+        <v>41214</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G27" s="1">
+        <v>7</v>
+      </c>
+      <c r="H27" s="11">
+        <v>41061</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="1">
+        <v>7</v>
+      </c>
+      <c r="H28" s="11">
+        <v>41061</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G29" s="1">
+        <v>7</v>
+      </c>
+      <c r="H29" s="11">
+        <v>41214</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G30" s="1">
+        <v>8</v>
+      </c>
+      <c r="H30" s="11">
         <v>41426</v>
       </c>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="I30" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" s="1">
         <v>1.8</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="5">
-        <v>2012</v>
-      </c>
-      <c r="G19" s="5">
-        <v>8</v>
-      </c>
-      <c r="H19" s="7">
-        <v>41365</v>
-      </c>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="E31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G31" s="1">
+        <v>7</v>
+      </c>
+      <c r="H31" s="11">
+        <v>41214</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="1">
         <v>1.8</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="5">
-        <v>2012</v>
-      </c>
-      <c r="G20" s="5">
-        <v>8</v>
-      </c>
-      <c r="H20" s="7">
-        <v>41365</v>
-      </c>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="7">
-        <v>41426</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="7">
-        <v>41365</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="7">
-        <v>41365</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="7">
-        <v>41426</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="5">
-        <v>2012</v>
-      </c>
-      <c r="G25" s="5">
-        <v>8</v>
-      </c>
-      <c r="H25" s="7">
-        <v>41426</v>
-      </c>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="5">
-        <v>8</v>
-      </c>
-      <c r="H26" s="7">
-        <v>41365</v>
-      </c>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" s="5">
-        <v>2</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="5">
-        <v>2012</v>
-      </c>
-      <c r="G27" s="5">
-        <v>8</v>
-      </c>
-      <c r="H27" s="7">
-        <v>41426</v>
-      </c>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D28" s="5">
-        <v>2</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="5">
-        <v>2012</v>
-      </c>
-      <c r="G28" s="5">
-        <v>8</v>
-      </c>
-      <c r="H28" s="7">
-        <v>41426</v>
-      </c>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="7">
-        <v>41365</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="7">
-        <v>41365</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="7">
-        <v>41518</v>
-      </c>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="5">
-        <v>2012</v>
-      </c>
-      <c r="G32" s="5">
-        <v>8</v>
-      </c>
-      <c r="H32" s="7">
-        <v>41426</v>
-      </c>
-      <c r="I32" s="8"/>
+      <c r="E32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G32" s="1">
+        <v>7</v>
+      </c>
+      <c r="H32" s="11">
+        <v>41214</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="7">
-        <v>41395</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>46</v>
+      <c r="A33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="1">
+        <v>7</v>
+      </c>
+      <c r="H33" s="11">
+        <v>41214</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>178</v>
+      <c r="B34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="12">
+        <v>43</v>
+      </c>
+      <c r="H34" s="11">
+        <v>41214</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="11">
+        <v>41214</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="1">
+        <v>7</v>
+      </c>
+      <c r="H36" s="11">
+        <v>41122</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="11">
+        <v>41122</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G38" s="1">
+        <v>7</v>
+      </c>
+      <c r="H38" s="11">
+        <v>41061</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="4">
+        <v>8</v>
+      </c>
+      <c r="H39" s="6">
+        <v>41426</v>
+      </c>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2012</v>
+      </c>
+      <c r="G40" s="4">
+        <v>8</v>
+      </c>
+      <c r="H40" s="6">
         <v>41365</v>
       </c>
-      <c r="I34" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="5">
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="4">
         <v>2012</v>
       </c>
-      <c r="G35" s="5">
-        <v>8</v>
-      </c>
-      <c r="H35" s="7">
+      <c r="G41" s="4">
+        <v>8</v>
+      </c>
+      <c r="H41" s="6">
+        <v>41365</v>
+      </c>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="6">
         <v>41426</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I42" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="6">
+        <v>41365</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="6">
+        <v>41365</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="6">
+        <v>41426</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2012</v>
+      </c>
+      <c r="G46" s="4">
+        <v>8</v>
+      </c>
+      <c r="H46" s="6">
+        <v>41426</v>
+      </c>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="4">
+        <v>8</v>
+      </c>
+      <c r="H47" s="6">
+        <v>41365</v>
+      </c>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2012</v>
+      </c>
+      <c r="G48" s="4">
+        <v>8</v>
+      </c>
+      <c r="H48" s="6">
+        <v>41426</v>
+      </c>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="4">
+        <v>2</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2012</v>
+      </c>
+      <c r="G49" s="4">
+        <v>8</v>
+      </c>
+      <c r="H49" s="6">
+        <v>41426</v>
+      </c>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="6">
+        <v>41365</v>
+      </c>
+      <c r="I50" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="5">
-        <v>8</v>
-      </c>
-      <c r="H36" s="7">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" s="6">
+        <v>41365</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" s="6">
+        <v>41518</v>
+      </c>
+      <c r="I52" s="7"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2012</v>
+      </c>
+      <c r="G53" s="4">
+        <v>8</v>
+      </c>
+      <c r="H53" s="6">
+        <v>41426</v>
+      </c>
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H54" s="6">
         <v>41395</v>
       </c>
-      <c r="I36" s="8"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="5">
-        <v>2012</v>
-      </c>
-      <c r="G37" s="5">
-        <v>8</v>
-      </c>
-      <c r="H37" s="7">
-        <v>41426</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="5">
-        <v>2012</v>
-      </c>
-      <c r="G38" s="5">
-        <v>8</v>
-      </c>
-      <c r="H38" s="7">
-        <v>41426</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="5">
-        <v>8</v>
-      </c>
-      <c r="H39" s="7">
-        <v>41334</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="5">
-        <v>2012</v>
-      </c>
-      <c r="G40" s="5">
-        <v>8</v>
-      </c>
-      <c r="H40" s="7">
-        <v>41334</v>
-      </c>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F41" s="5">
-        <v>2012</v>
-      </c>
-      <c r="G41" s="5">
-        <v>8</v>
-      </c>
-      <c r="H41" s="7">
-        <v>41214</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" s="5">
-        <v>2012</v>
-      </c>
-      <c r="G42" s="5">
-        <v>8</v>
-      </c>
-      <c r="H42" s="7">
-        <v>41214</v>
-      </c>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D43" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43" s="5">
-        <v>2012</v>
-      </c>
-      <c r="G43" s="5">
-        <v>8</v>
-      </c>
-      <c r="H43" s="7">
-        <v>41214</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="1">
-        <v>8</v>
-      </c>
-      <c r="H44" s="12">
-        <v>41395</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D45" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="5">
-        <v>2012</v>
-      </c>
-      <c r="G45" s="5">
-        <v>8</v>
-      </c>
-      <c r="H45" s="7">
-        <v>41214</v>
-      </c>
-      <c r="I45" s="8"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="D46" s="5">
-        <v>1.7</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F46" s="5">
-        <v>2012</v>
-      </c>
-      <c r="G46" s="5">
-        <v>8</v>
-      </c>
-      <c r="H46" s="7">
-        <v>41153</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F47" s="5">
-        <v>2012</v>
-      </c>
-      <c r="G47" s="5">
-        <v>8</v>
-      </c>
-      <c r="H47" s="7">
-        <v>41426</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F48" s="5">
-        <v>2012</v>
-      </c>
-      <c r="G48" s="5">
-        <v>8</v>
-      </c>
-      <c r="H48" s="7">
-        <v>41426</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F49" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G49" s="1">
-        <v>7</v>
-      </c>
-      <c r="H49" s="12">
-        <v>41061</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F50" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G50" s="1">
-        <v>7</v>
-      </c>
-      <c r="H50" s="12">
-        <v>41061</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F51" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G51" s="1">
-        <v>7</v>
-      </c>
-      <c r="H51" s="12">
-        <v>41183</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F52" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G52" s="1">
-        <v>7</v>
-      </c>
-      <c r="H52" s="12">
-        <v>41183</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="1">
-        <v>7</v>
-      </c>
-      <c r="H53" s="12">
-        <v>41153</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F54" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G54" s="1">
-        <v>7</v>
-      </c>
-      <c r="H54" s="12">
-        <v>41061</v>
-      </c>
-      <c r="I54" s="13" t="s">
-        <v>48</v>
+      <c r="I54" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="22"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="1">
         <v>1.8</v>
       </c>
@@ -3826,10 +3930,10 @@
       <c r="G55" s="1">
         <v>7</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="11">
         <v>41214</v>
       </c>
-      <c r="I55" s="13" t="s">
+      <c r="I55" s="12" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3837,10 +3941,10 @@
       <c r="A56" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="22"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="1">
         <v>1.8</v>
       </c>
@@ -3853,10 +3957,10 @@
       <c r="G56" s="1">
         <v>7</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H56" s="11">
         <v>41214</v>
       </c>
-      <c r="I56" s="13" t="s">
+      <c r="I56" s="12" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3864,10 +3968,10 @@
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="22"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="1">
         <v>1.8</v>
       </c>
@@ -3880,10 +3984,10 @@
       <c r="G57" s="1">
         <v>7</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="11">
         <v>41214</v>
       </c>
-      <c r="I57" s="13" t="s">
+      <c r="I57" s="12" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3891,10 +3995,10 @@
       <c r="A58" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="22"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="1">
         <v>1.8</v>
       </c>
@@ -3907,10 +4011,10 @@
       <c r="G58" s="1">
         <v>7</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="11">
         <v>41214</v>
       </c>
-      <c r="I58" s="13" t="s">
+      <c r="I58" s="12" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3918,10 +4022,10 @@
       <c r="A59" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="22"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="1">
         <v>1.8</v>
       </c>
@@ -3934,108 +4038,100 @@
       <c r="G59" s="1">
         <v>7</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="11">
         <v>41214</v>
       </c>
-      <c r="I59" s="13" t="s">
+      <c r="I59" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D60" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F60" s="1">
+      <c r="A60" s="4"/>
+      <c r="B60" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="4">
         <v>2012</v>
       </c>
-      <c r="G60" s="1">
-        <v>8</v>
-      </c>
-      <c r="H60" s="12">
-        <v>41214</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>100</v>
+      <c r="G60" s="4">
+        <v>8</v>
+      </c>
+      <c r="H60" s="6">
+        <v>41426</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F61" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G61" s="1">
-        <v>7</v>
-      </c>
-      <c r="H61" s="12">
-        <v>41061</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>48</v>
-      </c>
+      <c r="A61" s="4"/>
+      <c r="B61" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="4">
+        <v>8</v>
+      </c>
+      <c r="H61" s="6">
+        <v>41395</v>
+      </c>
+      <c r="I61" s="7"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="1">
-        <v>7</v>
-      </c>
-      <c r="H62" s="12">
-        <v>41061</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>48</v>
+      <c r="A62" s="4"/>
+      <c r="B62" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="4">
+        <v>2012</v>
+      </c>
+      <c r="G62" s="4">
+        <v>8</v>
+      </c>
+      <c r="H62" s="6">
+        <v>41426</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="22"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="1" t="s">
         <v>8</v>
       </c>
@@ -4048,224 +4144,204 @@
       <c r="G63" s="1">
         <v>7</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H63" s="11">
         <v>41061</v>
       </c>
-      <c r="I63" s="13" t="s">
+      <c r="I63" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2012</v>
+      </c>
+      <c r="G64" s="4">
+        <v>8</v>
+      </c>
+      <c r="H64" s="6">
+        <v>41426</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="4">
+        <v>8</v>
+      </c>
+      <c r="H65" s="6">
+        <v>41334</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="4">
+        <v>2012</v>
+      </c>
+      <c r="G66" s="4">
+        <v>8</v>
+      </c>
+      <c r="H66" s="6">
+        <v>41334</v>
+      </c>
+      <c r="I66" s="7"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2012</v>
+      </c>
+      <c r="G67" s="4">
+        <v>8</v>
+      </c>
+      <c r="H67" s="6">
+        <v>41214</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F68" s="4">
+        <v>2012</v>
+      </c>
+      <c r="G68" s="4">
+        <v>8</v>
+      </c>
+      <c r="H68" s="6">
+        <v>41214</v>
+      </c>
+      <c r="I68" s="7"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69" s="4">
         <v>1.8</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E69" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F64" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G64" s="1">
-        <v>7</v>
-      </c>
-      <c r="H64" s="12">
+      <c r="F69" s="4">
+        <v>2012</v>
+      </c>
+      <c r="G69" s="4">
+        <v>8</v>
+      </c>
+      <c r="H69" s="6">
         <v>41214</v>
       </c>
-      <c r="I64" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="1">
+      <c r="I69" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" s="4">
         <v>2012</v>
       </c>
-      <c r="G65" s="1">
-        <v>8</v>
-      </c>
-      <c r="H65" s="12">
-        <v>41426</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="D66" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F66" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G66" s="1">
-        <v>7</v>
-      </c>
-      <c r="H66" s="12">
+      <c r="G70" s="4">
+        <v>8</v>
+      </c>
+      <c r="H70" s="6">
         <v>41214</v>
       </c>
-      <c r="I66" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="D67" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F67" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G67" s="1">
-        <v>7</v>
-      </c>
-      <c r="H67" s="12">
-        <v>41214</v>
-      </c>
-      <c r="I67" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G68" s="1">
-        <v>7</v>
-      </c>
-      <c r="H68" s="12">
-        <v>41214</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H69" s="12">
-        <v>41214</v>
-      </c>
-      <c r="I69" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H70" s="12">
-        <v>41214</v>
-      </c>
-      <c r="I70" s="13" t="s">
-        <v>48</v>
-      </c>
+      <c r="I70" s="7"/>
     </row>
     <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="22"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="1">
         <v>1.8</v>
       </c>
@@ -4278,10 +4354,10 @@
       <c r="G71" s="1">
         <v>7</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H71" s="11">
         <v>41214</v>
       </c>
-      <c r="I71" s="13" t="s">
+      <c r="I71" s="12" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4289,10 +4365,10 @@
       <c r="A72" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C72" s="22"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="1">
         <v>1.8</v>
       </c>
@@ -4305,10 +4381,10 @@
       <c r="G72" s="1">
         <v>7</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H72" s="11">
         <v>41214</v>
       </c>
-      <c r="I72" s="13" t="s">
+      <c r="I72" s="12" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4316,10 +4392,10 @@
       <c r="A73" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C73" s="22"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="1">
         <v>1.7</v>
       </c>
@@ -4332,173 +4408,175 @@
       <c r="G73" s="1">
         <v>7</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H73" s="11">
         <v>41183</v>
       </c>
-      <c r="I73" s="13" t="s">
+      <c r="I73" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="1" t="s">
+      <c r="A74" s="4"/>
+      <c r="B74" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G74" s="1">
-        <v>7</v>
-      </c>
-      <c r="H74" s="12">
-        <v>41122</v>
-      </c>
-      <c r="I74" s="13" t="s">
-        <v>48</v>
+      <c r="F74" s="4">
+        <v>2012</v>
+      </c>
+      <c r="G74" s="4">
+        <v>8</v>
+      </c>
+      <c r="H74" s="6">
+        <v>41153</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="1" t="s">
+      <c r="A75" s="4"/>
+      <c r="B75" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H75" s="12">
-        <v>41122</v>
-      </c>
-      <c r="I75" s="13" t="s">
-        <v>48</v>
+      <c r="F75" s="4">
+        <v>2012</v>
+      </c>
+      <c r="G75" s="4">
+        <v>8</v>
+      </c>
+      <c r="H75" s="6">
+        <v>41426</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C76" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="D76" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="E76" s="2" t="s">
+      <c r="A76" s="4"/>
+      <c r="B76" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F76" s="2">
-        <v>2010</v>
-      </c>
-      <c r="G76" s="2">
-        <v>7</v>
-      </c>
-      <c r="H76" s="15">
-        <v>41061</v>
-      </c>
-      <c r="I76" s="13" t="s">
-        <v>48</v>
+      <c r="F76" s="22">
+        <v>2012</v>
+      </c>
+      <c r="G76" s="22">
+        <v>8</v>
+      </c>
+      <c r="H76" s="23">
+        <v>41426</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1"/>
-    <hyperlink ref="B13" r:id="rId2"/>
-    <hyperlink ref="B14" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B15" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B13" r:id="rId5"/>
     <hyperlink ref="B4" r:id="rId6"/>
     <hyperlink ref="B2" r:id="rId7"/>
     <hyperlink ref="B3" r:id="rId8"/>
     <hyperlink ref="B5" r:id="rId9"/>
-    <hyperlink ref="B40" r:id="rId10"/>
-    <hyperlink ref="B39" r:id="rId11"/>
-    <hyperlink ref="B48" r:id="rId12"/>
-    <hyperlink ref="B47" r:id="rId13"/>
-    <hyperlink ref="B38" r:id="rId14"/>
-    <hyperlink ref="B37" r:id="rId15"/>
-    <hyperlink ref="B76" r:id="rId16"/>
-    <hyperlink ref="B75" r:id="rId17"/>
-    <hyperlink ref="B74" r:id="rId18"/>
-    <hyperlink ref="B36" r:id="rId19"/>
-    <hyperlink ref="B46" r:id="rId20"/>
+    <hyperlink ref="B66" r:id="rId10"/>
+    <hyperlink ref="B65" r:id="rId11"/>
+    <hyperlink ref="B76" r:id="rId12"/>
+    <hyperlink ref="B75" r:id="rId13"/>
+    <hyperlink ref="B64" r:id="rId14"/>
+    <hyperlink ref="B62" r:id="rId15"/>
+    <hyperlink ref="B38" r:id="rId16"/>
+    <hyperlink ref="B37" r:id="rId17"/>
+    <hyperlink ref="B36" r:id="rId18"/>
+    <hyperlink ref="B61" r:id="rId19"/>
+    <hyperlink ref="B74" r:id="rId20"/>
     <hyperlink ref="B73" r:id="rId21"/>
-    <hyperlink ref="B45" r:id="rId22"/>
+    <hyperlink ref="B70" r:id="rId22"/>
     <hyperlink ref="B72" r:id="rId23"/>
-    <hyperlink ref="B35" r:id="rId24"/>
-    <hyperlink ref="B44" r:id="rId25"/>
-    <hyperlink ref="B34" r:id="rId26"/>
-    <hyperlink ref="B70" r:id="rId27"/>
-    <hyperlink ref="B33" r:id="rId28"/>
-    <hyperlink ref="B69" r:id="rId29"/>
-    <hyperlink ref="B68" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B43" r:id="rId32"/>
-    <hyperlink ref="B67" r:id="rId33"/>
-    <hyperlink ref="B31" r:id="rId34"/>
-    <hyperlink ref="B30" r:id="rId35"/>
-    <hyperlink ref="B29" r:id="rId36"/>
-    <hyperlink ref="B28" r:id="rId37"/>
-    <hyperlink ref="B66" r:id="rId38"/>
-    <hyperlink ref="B65" r:id="rId39"/>
-    <hyperlink ref="B27" r:id="rId40"/>
-    <hyperlink ref="B64" r:id="rId41"/>
+    <hyperlink ref="B60" r:id="rId24"/>
+    <hyperlink ref="B19" r:id="rId25"/>
+    <hyperlink ref="B18" r:id="rId26"/>
+    <hyperlink ref="B35" r:id="rId27"/>
+    <hyperlink ref="B54" r:id="rId28"/>
+    <hyperlink ref="B34" r:id="rId29"/>
+    <hyperlink ref="B33" r:id="rId30"/>
+    <hyperlink ref="B53" r:id="rId31"/>
+    <hyperlink ref="B69" r:id="rId32"/>
+    <hyperlink ref="B32" r:id="rId33"/>
+    <hyperlink ref="B52" r:id="rId34"/>
+    <hyperlink ref="B51" r:id="rId35"/>
+    <hyperlink ref="B50" r:id="rId36"/>
+    <hyperlink ref="B49" r:id="rId37"/>
+    <hyperlink ref="B31" r:id="rId38"/>
+    <hyperlink ref="B30" r:id="rId39"/>
+    <hyperlink ref="B48" r:id="rId40"/>
+    <hyperlink ref="B29" r:id="rId41"/>
     <hyperlink ref="B63" r:id="rId42"/>
-    <hyperlink ref="B26" r:id="rId43"/>
-    <hyperlink ref="B62" r:id="rId44"/>
-    <hyperlink ref="B25" r:id="rId45"/>
-    <hyperlink ref="B61" r:id="rId46"/>
-    <hyperlink ref="B60" r:id="rId47"/>
+    <hyperlink ref="B47" r:id="rId43"/>
+    <hyperlink ref="B28" r:id="rId44"/>
+    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B27" r:id="rId46"/>
+    <hyperlink ref="B26" r:id="rId47"/>
     <hyperlink ref="B59" r:id="rId48"/>
-    <hyperlink ref="B24" r:id="rId49"/>
-    <hyperlink ref="B23" r:id="rId50"/>
-    <hyperlink ref="B22" r:id="rId51"/>
+    <hyperlink ref="B45" r:id="rId49"/>
+    <hyperlink ref="B44" r:id="rId50"/>
+    <hyperlink ref="B43" r:id="rId51"/>
     <hyperlink ref="B58" r:id="rId52"/>
-    <hyperlink ref="B21" r:id="rId53"/>
+    <hyperlink ref="B42" r:id="rId53"/>
     <hyperlink ref="B57" r:id="rId54"/>
     <hyperlink ref="B55" r:id="rId55" display="Connecting a PaaS application to an IaaS Application with a Virtual Network"/>
-    <hyperlink ref="B20" r:id="rId56"/>
+    <hyperlink ref="B41" r:id="rId56"/>
     <hyperlink ref="B56" r:id="rId57"/>
-    <hyperlink ref="B19" r:id="rId58"/>
-    <hyperlink ref="B54" r:id="rId59"/>
-    <hyperlink ref="B53" r:id="rId60"/>
-    <hyperlink ref="B52" r:id="rId61"/>
-    <hyperlink ref="B41" r:id="rId62"/>
-    <hyperlink ref="B51" r:id="rId63"/>
-    <hyperlink ref="B18" r:id="rId64"/>
-    <hyperlink ref="B50" r:id="rId65"/>
-    <hyperlink ref="B49" r:id="rId66"/>
-    <hyperlink ref="B42" r:id="rId67"/>
+    <hyperlink ref="B40" r:id="rId58"/>
+    <hyperlink ref="B25" r:id="rId59"/>
+    <hyperlink ref="B24" r:id="rId60"/>
+    <hyperlink ref="B23" r:id="rId61"/>
+    <hyperlink ref="B67" r:id="rId62"/>
+    <hyperlink ref="B22" r:id="rId63"/>
+    <hyperlink ref="B39" r:id="rId64"/>
+    <hyperlink ref="B21" r:id="rId65"/>
+    <hyperlink ref="B20" r:id="rId66"/>
+    <hyperlink ref="B68" r:id="rId67"/>
     <hyperlink ref="B71" r:id="rId68"/>
-    <hyperlink ref="B7" r:id="rId69"/>
+    <hyperlink ref="B15" r:id="rId69"/>
     <hyperlink ref="B17" r:id="rId70"/>
-    <hyperlink ref="B11" r:id="rId71"/>
+    <hyperlink ref="B16" r:id="rId71"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4513,863 +4591,863 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.85546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="80.28515625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.85546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.28515625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="7">
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="6">
         <v>41306</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>103</v>
       </c>
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4">
         <v>2012</v>
       </c>
-      <c r="G3" s="5">
-        <v>8</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="G3" s="4">
+        <v>8</v>
+      </c>
+      <c r="H3" s="6">
         <v>41214</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="7"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4">
         <v>2012</v>
       </c>
-      <c r="G4" s="5">
-        <v>8</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="G4" s="4">
+        <v>8</v>
+      </c>
+      <c r="H4" s="6">
         <v>41365</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>106</v>
       </c>
       <c r="J4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1.7</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4">
         <v>2012</v>
       </c>
-      <c r="G5" s="5">
-        <v>8</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="G5" s="4">
+        <v>8</v>
+      </c>
+      <c r="H5" s="6">
         <v>41153</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="7"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="6">
         <v>41365</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="7"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="6">
         <v>41365</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>110</v>
       </c>
       <c r="J7"/>
     </row>
     <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>41365</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>113</v>
       </c>
       <c r="J8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>41365</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="7"/>
       <c r="J9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="5">
-        <v>8</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4">
+        <v>8</v>
+      </c>
+      <c r="H10" s="6">
         <v>41365</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="7"/>
       <c r="J10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="5">
-        <v>8</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4">
+        <v>8</v>
+      </c>
+      <c r="H11" s="6">
         <v>41153</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="7"/>
       <c r="J11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>1.7</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4">
         <v>2012</v>
       </c>
-      <c r="G12" s="5">
-        <v>8</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="G12" s="4">
+        <v>8</v>
+      </c>
+      <c r="H12" s="6">
         <v>41153</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="7"/>
       <c r="J12"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="5">
-        <v>8</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="4">
+        <v>8</v>
+      </c>
+      <c r="H13" s="6">
         <v>41365</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="7"/>
       <c r="J13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="6">
         <v>41365</v>
       </c>
-      <c r="I14" s="8"/>
+      <c r="I14" s="7"/>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="6">
         <v>41365</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J15"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="D16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="6">
         <v>41365</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="7" t="s">
         <v>123</v>
       </c>
       <c r="J16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>41365</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>125</v>
       </c>
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="D18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>41365</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="7" t="s">
         <v>128</v>
       </c>
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="D19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <v>41365</v>
       </c>
-      <c r="I19" s="8"/>
+      <c r="I19" s="7"/>
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>1.8</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="5">
-        <v>8</v>
-      </c>
-      <c r="H20" s="7">
+      <c r="E20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="4">
+        <v>8</v>
+      </c>
+      <c r="H20" s="6">
         <v>41365</v>
       </c>
-      <c r="I20" s="8"/>
+      <c r="I20" s="7"/>
       <c r="J20"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="5">
+      <c r="D21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="4">
         <v>2012</v>
       </c>
-      <c r="G21" s="5">
-        <v>8</v>
-      </c>
-      <c r="H21" s="7">
+      <c r="G21" s="4">
+        <v>8</v>
+      </c>
+      <c r="H21" s="6">
         <v>41365</v>
       </c>
-      <c r="I21" s="8"/>
+      <c r="I21" s="7"/>
       <c r="J21"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="5">
-        <v>8</v>
-      </c>
-      <c r="H22" s="7">
+      <c r="D22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="4">
+        <v>8</v>
+      </c>
+      <c r="H22" s="6">
         <v>41365</v>
       </c>
-      <c r="I22" s="8"/>
+      <c r="I22" s="7"/>
       <c r="J22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="D23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4">
         <v>2012</v>
       </c>
-      <c r="G23" s="5">
-        <v>8</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="G23" s="4">
+        <v>8</v>
+      </c>
+      <c r="H23" s="6">
         <v>41306</v>
       </c>
-      <c r="I23" s="8"/>
+      <c r="I23" s="7"/>
       <c r="J23"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>1.8</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>2012</v>
       </c>
-      <c r="G24" s="5">
-        <v>8</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="G24" s="4">
+        <v>8</v>
+      </c>
+      <c r="H24" s="6">
         <v>41214</v>
       </c>
-      <c r="I24" s="8"/>
+      <c r="I24" s="7"/>
       <c r="J24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="D25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>2012</v>
       </c>
-      <c r="G25" s="5">
-        <v>8</v>
-      </c>
-      <c r="H25" s="7">
+      <c r="G25" s="4">
+        <v>8</v>
+      </c>
+      <c r="H25" s="6">
         <v>41487</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="7" t="s">
         <v>135</v>
       </c>
       <c r="J25"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="D26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="F26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <v>41275</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="7" t="s">
         <v>137</v>
       </c>
       <c r="J26"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="D27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="F27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <v>41183</v>
       </c>
-      <c r="I27" s="8"/>
+      <c r="I27" s="7"/>
       <c r="J27"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="D28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>2012</v>
       </c>
-      <c r="G28" s="5">
-        <v>8</v>
-      </c>
-      <c r="H28" s="7">
+      <c r="G28" s="4">
+        <v>8</v>
+      </c>
+      <c r="H28" s="6">
         <v>41183</v>
       </c>
-      <c r="I28" s="8"/>
+      <c r="I28" s="7"/>
       <c r="J28"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>1.7</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>2012</v>
       </c>
-      <c r="G29" s="5">
-        <v>8</v>
-      </c>
-      <c r="H29" s="7">
+      <c r="G29" s="4">
+        <v>8</v>
+      </c>
+      <c r="H29" s="6">
         <v>41183</v>
       </c>
-      <c r="I29" s="8"/>
+      <c r="I29" s="7"/>
       <c r="J29"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>1.7</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>2012</v>
       </c>
-      <c r="G30" s="5">
-        <v>8</v>
-      </c>
-      <c r="H30" s="7">
+      <c r="G30" s="4">
+        <v>8</v>
+      </c>
+      <c r="H30" s="6">
         <v>41183</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="7" t="s">
         <v>142</v>
       </c>
       <c r="J30"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="6">
         <v>41214</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="7" t="s">
         <v>145</v>
       </c>
       <c r="J31"/>
     </row>
     <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="19" t="s">
         <v>249</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -5384,20 +5462,20 @@
       <c r="G32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="11">
         <v>41183</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" s="12" t="s">
         <v>147</v>
       </c>
       <c r="J32"/>
     </row>
     <row r="33" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="19" t="s">
         <v>250</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -5412,43 +5490,51 @@
       <c r="G33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="11">
         <v>41183</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="12" t="s">
         <v>147</v>
       </c>
       <c r="J33"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="24" t="s">
+      <c r="A34" s="28"/>
+      <c r="B34" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="H34" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="I34" s="33" t="s">
+      <c r="I34" s="29" t="s">
         <v>144</v>
       </c>
       <c r="J34"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E34">
+    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B23" r:id="rId1"/>
     <hyperlink ref="B22" r:id="rId2"/>
@@ -5494,10 +5580,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5506,526 +5592,595 @@
     <col min="2" max="2" width="52.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
+      <c r="E1" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
       <c r="B2" t="s">
         <v>293</v>
       </c>
       <c r="C2" t="s">
         <v>252</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>294</v>
       </c>
       <c r="C3" t="s">
         <v>253</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>295</v>
       </c>
       <c r="C4" t="s">
         <v>254</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>296</v>
       </c>
       <c r="C5" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>297</v>
       </c>
       <c r="C6" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>298</v>
       </c>
       <c r="C7" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>299</v>
       </c>
       <c r="C8" t="s">
         <v>258</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>300</v>
       </c>
       <c r="C9" t="s">
         <v>259</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>301</v>
       </c>
       <c r="C10" t="s">
         <v>260</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>302</v>
       </c>
       <c r="C11" t="s">
         <v>261</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="D11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>303</v>
       </c>
       <c r="C12" t="s">
         <v>262</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="D12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>304</v>
       </c>
       <c r="C13" t="s">
         <v>263</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="D13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>305</v>
       </c>
       <c r="C14" t="s">
         <v>264</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="D14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>306</v>
       </c>
       <c r="C15" t="s">
         <v>265</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="34" t="s">
+      <c r="D15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>307</v>
       </c>
       <c r="C17" t="s">
         <v>266</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="D17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>308</v>
       </c>
       <c r="C18" t="s">
         <v>267</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="D18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>309</v>
       </c>
       <c r="C19" t="s">
         <v>268</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>310</v>
       </c>
       <c r="C20" t="s">
         <v>269</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="D20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>311</v>
       </c>
       <c r="C21" t="s">
         <v>270</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
       <c r="B22" t="s">
         <v>312</v>
       </c>
       <c r="C22" t="s">
         <v>271</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
       <c r="B23" t="s">
         <v>313</v>
       </c>
       <c r="C23" t="s">
         <v>272</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="D23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
       <c r="B24" t="s">
         <v>314</v>
       </c>
       <c r="C24" t="s">
         <v>273</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="D24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>315</v>
       </c>
       <c r="C25" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
       <c r="B26" t="s">
         <v>316</v>
       </c>
       <c r="C26" t="s">
         <v>275</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="D26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
       <c r="B27" t="s">
         <v>317</v>
       </c>
       <c r="C27" t="s">
         <v>276</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
+      <c r="D27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
       <c r="B28" t="s">
         <v>318</v>
       </c>
       <c r="C28" t="s">
         <v>277</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="D28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
       <c r="B29" t="s">
         <v>319</v>
       </c>
       <c r="C29" t="s">
         <v>278</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+      <c r="D29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
       <c r="B30" t="s">
         <v>320</v>
       </c>
       <c r="C30" t="s">
         <v>279</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+      <c r="D30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
       <c r="B31" t="s">
         <v>321</v>
       </c>
       <c r="C31" t="s">
         <v>280</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
       <c r="B32" t="s">
         <v>322</v>
       </c>
       <c r="C32" t="s">
         <v>281</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="D32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
       <c r="B33" t="s">
         <v>323</v>
       </c>
       <c r="C33" t="s">
         <v>282</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+      <c r="D33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
       <c r="B34" t="s">
         <v>324</v>
       </c>
       <c r="C34" t="s">
         <v>283</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="34" t="s">
+      <c r="D34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="34" t="s">
+      <c r="D35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="34" t="s">
+      <c r="D36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="34" t="s">
+      <c r="D37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="34" t="s">
+      <c r="D38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="34" t="s">
+      <c r="D39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="34" t="s">
+      <c r="D40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="34" t="s">
+      <c r="D41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="34" t="s">
+      <c r="D42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="D43" s="26" t="s">
-        <v>9</v>
-      </c>
+      <c r="D43" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="15"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
